--- a/Output_code/Data/Table_3_and_Appendix_H_granted.xlsx
+++ b/Output_code/Data/Table_3_and_Appendix_H_granted.xlsx
@@ -74,31 +74,31 @@
     <t xml:space="preserve">DataLong_Subs_sim_group2</t>
   </si>
   <si>
+    <t xml:space="preserve">**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializations_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueCodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueSubclass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herfindahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shannon</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specializations_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueSubclass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herfindahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shannon</t>
   </si>
   <si>
     <t xml:space="preserve">AIcodes</t>
@@ -557,25 +557,25 @@
         <v>2.36236721567099</v>
       </c>
       <c r="B2" t="n">
-        <v>0.541709200527483</v>
+        <v>0.482867122835574</v>
       </c>
       <c r="C2" t="n">
-        <v>1.47125558080328</v>
+        <v>1.56805079860647</v>
       </c>
       <c r="D2" t="n">
-        <v>3.2534788505387</v>
+        <v>3.15668363273551</v>
       </c>
       <c r="E2" t="n">
-        <v>1.30061718263712</v>
+        <v>1.41594765491326</v>
       </c>
       <c r="F2" t="n">
-        <v>3.42411724870485</v>
+        <v>3.30878677642871</v>
       </c>
       <c r="G2" t="n">
-        <v>0.966924315112192</v>
+        <v>1.11850150724655</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75781011622978</v>
+        <v>3.60623292409542</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -598,25 +598,25 @@
         <v>0.715910791797635</v>
       </c>
       <c r="B3" t="n">
-        <v>0.441589283746943</v>
+        <v>0.445871977478679</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0105035799660854</v>
+        <v>-0.0175486111547922</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44232516356136</v>
+        <v>1.44937019475006</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.149604204346372</v>
+        <v>-0.157998284060576</v>
       </c>
       <c r="F3" t="n">
-        <v>1.58142578794164</v>
+        <v>1.58981986765585</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.421623203134489</v>
+        <v>-0.432655422187443</v>
       </c>
       <c r="H3" t="n">
-        <v>1.85344478672976</v>
+        <v>1.86447700578271</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -639,25 +639,25 @@
         <v>0.986659906287153</v>
       </c>
       <c r="B4" t="n">
-        <v>0.525934787673921</v>
+        <v>0.493482563501624</v>
       </c>
       <c r="C4" t="n">
-        <v>0.121497180563553</v>
+        <v>0.174881089326981</v>
       </c>
       <c r="D4" t="n">
-        <v>1.85182263201075</v>
+        <v>1.79843872324733</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0441722775537319</v>
+        <v>0.0194340818239691</v>
       </c>
       <c r="F4" t="n">
-        <v>2.01749209012804</v>
+        <v>1.95388573075034</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.368148106760867</v>
+        <v>-0.284551177293032</v>
       </c>
       <c r="H4" t="n">
-        <v>2.34146791933517</v>
+        <v>2.25787098986734</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -680,25 +680,25 @@
         <v>49.8945372912541</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7467687904993</v>
+        <v>13.2015293729329</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2811026308828</v>
+        <v>28.1780214727795</v>
       </c>
       <c r="D5" t="n">
-        <v>72.5079719516254</v>
+        <v>71.6110531097287</v>
       </c>
       <c r="E5" t="n">
-        <v>22.9508704618755</v>
+        <v>24.0195397203056</v>
       </c>
       <c r="F5" t="n">
-        <v>76.8382041206327</v>
+        <v>75.7695348622026</v>
       </c>
       <c r="G5" t="n">
-        <v>14.482860886928</v>
+        <v>15.887397626579</v>
       </c>
       <c r="H5" t="n">
-        <v>85.3062136955803</v>
+        <v>83.9016769559293</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -721,25 +721,25 @@
         <v>24.1129060266511</v>
       </c>
       <c r="B6" t="n">
-        <v>6.64752116803597</v>
+        <v>6.49723309188524</v>
       </c>
       <c r="C6" t="n">
-        <v>13.1777337052319</v>
+        <v>13.4249575904998</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0480783480702</v>
+        <v>34.8008544628023</v>
       </c>
       <c r="E6" t="n">
-        <v>11.0837645373006</v>
+        <v>11.378329166556</v>
       </c>
       <c r="F6" t="n">
-        <v>37.1420475160016</v>
+        <v>36.8474828867461</v>
       </c>
       <c r="G6" t="n">
-        <v>6.98889149779042</v>
+        <v>7.37603358195468</v>
       </c>
       <c r="H6" t="n">
-        <v>41.2369205555117</v>
+        <v>40.8497784713475</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -762,25 +762,25 @@
         <v>29.8176336618877</v>
       </c>
       <c r="B7" t="n">
-        <v>8.75448791719864</v>
+        <v>9.18240428200193</v>
       </c>
       <c r="C7" t="n">
-        <v>15.4165010380959</v>
+        <v>14.7125786179945</v>
       </c>
       <c r="D7" t="n">
-        <v>44.2187662856795</v>
+        <v>44.9226887057809</v>
       </c>
       <c r="E7" t="n">
-        <v>12.6588373441784</v>
+        <v>11.8201212691639</v>
       </c>
       <c r="F7" t="n">
-        <v>46.976429979597</v>
+        <v>47.8151460546115</v>
       </c>
       <c r="G7" t="n">
-        <v>7.26607278718399</v>
+        <v>6.16376023145073</v>
       </c>
       <c r="H7" t="n">
-        <v>52.3691945365914</v>
+        <v>53.4715070923247</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -803,25 +803,25 @@
         <v>2.67622026855953</v>
       </c>
       <c r="B8" t="n">
-        <v>0.434152078587749</v>
+        <v>0.481053487738492</v>
       </c>
       <c r="C8" t="n">
-        <v>1.96204009928268</v>
+        <v>1.88488728122971</v>
       </c>
       <c r="D8" t="n">
-        <v>3.39040043783638</v>
+        <v>3.46755325588935</v>
       </c>
       <c r="E8" t="n">
-        <v>1.82528219452754</v>
+        <v>1.73335543259209</v>
       </c>
       <c r="F8" t="n">
-        <v>3.52715834259152</v>
+        <v>3.61908510452697</v>
       </c>
       <c r="G8" t="n">
-        <v>1.55784451411749</v>
+        <v>1.43702648414518</v>
       </c>
       <c r="H8" t="n">
-        <v>3.79459602300157</v>
+        <v>3.91541405297388</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -844,25 +844,25 @@
         <v>1.69657219368637</v>
       </c>
       <c r="B9" t="n">
-        <v>0.448695293833502</v>
+        <v>0.416623792018846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.958468435330255</v>
+        <v>1.01122605581536</v>
       </c>
       <c r="D9" t="n">
-        <v>2.43467595204248</v>
+        <v>2.38191833155737</v>
       </c>
       <c r="E9" t="n">
-        <v>0.817129417772702</v>
+        <v>0.879989561329427</v>
       </c>
       <c r="F9" t="n">
-        <v>2.57601496960003</v>
+        <v>2.5131548260433</v>
       </c>
       <c r="G9" t="n">
-        <v>0.540733116771265</v>
+        <v>0.623349305445817</v>
       </c>
       <c r="H9" t="n">
-        <v>2.85241127060147</v>
+        <v>2.76979508192691</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -885,28 +885,28 @@
         <v>1.54463485663082</v>
       </c>
       <c r="B10" t="n">
-        <v>0.673945564720608</v>
+        <v>0.652268114895666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.435994402665424</v>
+        <v>0.471653807627453</v>
       </c>
       <c r="D10" t="n">
-        <v>2.65327531059623</v>
+        <v>2.6176159056342</v>
       </c>
       <c r="E10" t="n">
-        <v>0.223701549778433</v>
+        <v>0.266189351435318</v>
       </c>
       <c r="F10" t="n">
-        <v>2.86556816348322</v>
+        <v>2.82308036182633</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.191448918089462</v>
+        <v>-0.135607807340412</v>
       </c>
       <c r="H10" t="n">
-        <v>3.28071863135111</v>
+        <v>3.22487752060206</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -926,25 +926,25 @@
         <v>0.3338351535722</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0738783985771301</v>
+        <v>0.0757704208023328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212305187912821</v>
+        <v>0.209192811352362</v>
       </c>
       <c r="D11" t="n">
-        <v>0.455365119231579</v>
+        <v>0.458477495792037</v>
       </c>
       <c r="E11" t="n">
-        <v>0.189033492361025</v>
+        <v>0.185325128799627</v>
       </c>
       <c r="F11" t="n">
-        <v>0.478636814783375</v>
+        <v>0.482345178344772</v>
       </c>
       <c r="G11" t="n">
-        <v>0.143524398837513</v>
+        <v>0.13865054958539</v>
       </c>
       <c r="H11" t="n">
-        <v>0.524145908306887</v>
+        <v>0.529019757559009</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -953,7 +953,7 @@
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -967,25 +967,25 @@
         <v>0.225868285504047</v>
       </c>
       <c r="B12" t="n">
-        <v>0.074690340181157</v>
+        <v>0.0759810827561757</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103002675906044</v>
+        <v>0.100879404370138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.34873389510205</v>
+        <v>0.350857166637956</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0794752187489794</v>
+        <v>0.0769453633019428</v>
       </c>
       <c r="F12" t="n">
-        <v>0.372261352259115</v>
+        <v>0.374791207706151</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0334659691973867</v>
+        <v>0.0301410163241385</v>
       </c>
       <c r="H12" t="n">
-        <v>0.418270601810707</v>
+        <v>0.421595554683956</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1008,25 +1008,25 @@
         <v>0.0696925605582949</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0970350914657169</v>
+        <v>0.0964301444504398</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0899301649028094</v>
+        <v>-0.0889350270626785</v>
       </c>
       <c r="D13" t="n">
-        <v>0.229315286019399</v>
+        <v>0.228320148179268</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.12049621871451</v>
+        <v>-0.119310522564567</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2598813398311</v>
+        <v>0.258695643681157</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.180269835057392</v>
+        <v>-0.178711491546038</v>
       </c>
       <c r="H13" t="n">
-        <v>0.319654956173982</v>
+        <v>0.318096612662628</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -1035,7 +1035,7 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1049,25 +1049,25 @@
         <v>5.55794198958039</v>
       </c>
       <c r="B14" t="n">
-        <v>1.17808850444084</v>
+        <v>1.20682863919948</v>
       </c>
       <c r="C14" t="n">
-        <v>3.6199863997752</v>
+        <v>3.57270887809725</v>
       </c>
       <c r="D14" t="n">
-        <v>7.49589757938557</v>
+        <v>7.54317510106353</v>
       </c>
       <c r="E14" t="n">
-        <v>3.24888852087634</v>
+        <v>3.19255785674941</v>
       </c>
       <c r="F14" t="n">
-        <v>7.86699545828443</v>
+        <v>7.92332612241136</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52318600214078</v>
+        <v>2.44915141500254</v>
       </c>
       <c r="H14" t="n">
-        <v>8.59269797701999</v>
+        <v>8.66673256415824</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1076,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1090,25 +1090,25 @@
         <v>3.67956953642384</v>
       </c>
       <c r="B15" t="n">
-        <v>0.855441733686549</v>
+        <v>0.917895306345487</v>
       </c>
       <c r="C15" t="n">
-        <v>2.27236788450947</v>
+        <v>2.16963175748551</v>
       </c>
       <c r="D15" t="n">
-        <v>5.08677118833821</v>
+        <v>5.18950731536217</v>
       </c>
       <c r="E15" t="n">
-        <v>2.00290373839821</v>
+        <v>1.88049473598669</v>
       </c>
       <c r="F15" t="n">
-        <v>5.35623533444948</v>
+        <v>5.478644336861</v>
       </c>
       <c r="G15" t="n">
-        <v>1.47595163044729</v>
+        <v>1.31507122727787</v>
       </c>
       <c r="H15" t="n">
-        <v>5.88318744240039</v>
+        <v>6.04406784556982</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1117,7 +1117,7 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1131,25 +1131,25 @@
         <v>4.21474954867567</v>
       </c>
       <c r="B16" t="n">
-        <v>1.15534565719376</v>
+        <v>1.16859813837385</v>
       </c>
       <c r="C16" t="n">
-        <v>2.31420594259192</v>
+        <v>2.29240561105069</v>
       </c>
       <c r="D16" t="n">
-        <v>6.11529315475941</v>
+        <v>6.13709348630064</v>
       </c>
       <c r="E16" t="n">
-        <v>1.95027206057589</v>
+        <v>1.92429719746293</v>
       </c>
       <c r="F16" t="n">
-        <v>6.47922703677544</v>
+        <v>6.50520189988841</v>
       </c>
       <c r="G16" t="n">
-        <v>1.23857913574453</v>
+        <v>1.20444074422464</v>
       </c>
       <c r="H16" t="n">
-        <v>7.1909199616068</v>
+        <v>7.22505835312669</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1158,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1172,25 +1172,25 @@
         <v>-0.0466617699430823</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0166357923702651</v>
+        <v>0.0166077624334401</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0740276483921684</v>
+        <v>-0.0739815391460913</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0192958914939962</v>
+        <v>-0.0193420007400733</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0792679229888019</v>
+        <v>-0.0792129843126249</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0140556168973627</v>
+        <v>-0.0141105555735396</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0895155710888852</v>
+        <v>-0.0894433659716241</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00380796879727936</v>
+        <v>-0.00388017391454051</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1199,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1213,25 +1213,25 @@
         <v>-0.0193644487261431</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0136362338063084</v>
+        <v>0.0139613196438835</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0417960533375204</v>
+        <v>-0.0423308195403315</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00306715588523412</v>
+        <v>0.00360192208804521</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0460914669865075</v>
+        <v>-0.0467286352281548</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00736256953422125</v>
+        <v>0.00799973777586851</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0544913870111935</v>
+        <v>-0.055328808128787</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0157624895589072</v>
+        <v>0.0165999106765007</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1240,7 +1240,7 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1254,25 +1254,25 @@
         <v>-0.0114765801221486</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0151923896743341</v>
+        <v>0.015393815488636</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0364680611364282</v>
+        <v>-0.0367994066009548</v>
       </c>
       <c r="D19" t="n">
-        <v>0.013514900892131</v>
+        <v>0.0138462463566576</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0412536638838435</v>
+        <v>-0.0416484584798752</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0183005036395462</v>
+        <v>0.0186952982355779</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0506121759232333</v>
+        <v>-0.0511310488208749</v>
       </c>
       <c r="H19" t="n">
-        <v>0.027659015678936</v>
+        <v>0.0281778885765777</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1281,7 +1281,7 @@
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1295,25 +1295,25 @@
         <v>0.260972444802579</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0610488392815154</v>
+        <v>0.0571613020813795</v>
       </c>
       <c r="C20" t="n">
-        <v>0.160547104184486</v>
+        <v>0.166942102878709</v>
       </c>
       <c r="D20" t="n">
-        <v>0.361397785420671</v>
+        <v>0.355002786726448</v>
       </c>
       <c r="E20" t="n">
-        <v>0.141316719810808</v>
+        <v>0.148936292723075</v>
       </c>
       <c r="F20" t="n">
-        <v>0.380628169794349</v>
+        <v>0.373008596882083</v>
       </c>
       <c r="G20" t="n">
-        <v>0.103710634813395</v>
+        <v>0.113724930640945</v>
       </c>
       <c r="H20" t="n">
-        <v>0.418234254791762</v>
+        <v>0.408219958964212</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1322,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1336,25 +1336,25 @@
         <v>0.132401595910723</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0454340786514939</v>
+        <v>0.0458355259669548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0576625365290152</v>
+        <v>0.0570021556950821</v>
       </c>
       <c r="D21" t="n">
-        <v>0.20714065529243</v>
+        <v>0.207801036126363</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0433508017537946</v>
+        <v>0.0425639650154913</v>
       </c>
       <c r="F21" t="n">
-        <v>0.221452390067651</v>
+        <v>0.222239226805954</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0153634093044743</v>
+        <v>0.0143292810198472</v>
       </c>
       <c r="H21" t="n">
-        <v>0.249439782516971</v>
+        <v>0.250473910801598</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1363,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1377,34 +1377,34 @@
         <v>0.120009290784235</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0652081176232559</v>
+        <v>0.0639926178077807</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0127419372939786</v>
+        <v>0.0147414344904353</v>
       </c>
       <c r="D22" t="n">
-        <v>0.227276644274491</v>
+        <v>0.225277147078034</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00779861975734704</v>
+        <v>-0.00541624011901566</v>
       </c>
       <c r="F22" t="n">
-        <v>0.247817201325816</v>
+        <v>0.245434821687485</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0479668202132727</v>
+        <v>-0.0448356926886086</v>
       </c>
       <c r="H22" t="n">
-        <v>0.287985401781742</v>
+        <v>0.284854274257078</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1418,25 +1418,25 @@
         <v>0.603476095268161</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0810099275798584</v>
+        <v>0.0741479944329103</v>
       </c>
       <c r="C23" t="n">
-        <v>0.470214764399294</v>
+        <v>0.481502644426024</v>
       </c>
       <c r="D23" t="n">
-        <v>0.736737426137028</v>
+        <v>0.725449546110298</v>
       </c>
       <c r="E23" t="n">
-        <v>0.444696637211638</v>
+        <v>0.458146026179657</v>
       </c>
       <c r="F23" t="n">
-        <v>0.762255553324683</v>
+        <v>0.748806164356665</v>
       </c>
       <c r="G23" t="n">
-        <v>0.394794521822446</v>
+        <v>0.412470861608984</v>
       </c>
       <c r="H23" t="n">
-        <v>0.812157668713876</v>
+        <v>0.794481328927338</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1459,25 +1459,25 @@
         <v>0.198909645931965</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0506103568296757</v>
+        <v>0.0525864941064418</v>
       </c>
       <c r="C24" t="n">
-        <v>0.115655608947148</v>
+        <v>0.112404863126868</v>
       </c>
       <c r="D24" t="n">
-        <v>0.282163682916781</v>
+        <v>0.285414428737062</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0997133465458005</v>
+        <v>0.095840117483339</v>
       </c>
       <c r="F24" t="n">
-        <v>0.298105945318129</v>
+        <v>0.301979174380591</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0685373667387202</v>
+        <v>0.0634468371137709</v>
       </c>
       <c r="H24" t="n">
-        <v>0.329281925125209</v>
+        <v>0.334372454750159</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1500,25 +1500,25 @@
         <v>0.206895908004779</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0621505094567309</v>
+        <v>0.0646539646996808</v>
       </c>
       <c r="C25" t="n">
-        <v>0.104658319948457</v>
+        <v>0.100540136073804</v>
       </c>
       <c r="D25" t="n">
-        <v>0.309133496061101</v>
+        <v>0.313251679935754</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0850809094695865</v>
+        <v>0.0801741371934046</v>
       </c>
       <c r="F25" t="n">
-        <v>0.328710906539971</v>
+        <v>0.333617678816153</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0467961956442403</v>
+        <v>0.0403472949384012</v>
       </c>
       <c r="H25" t="n">
-        <v>0.366995620365318</v>
+        <v>0.373444521071157</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -1541,25 +1541,25 @@
         <v>-0.00718836437213018</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00783024947647577</v>
+        <v>0.00805973890378914</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0200691247609328</v>
+        <v>-0.0204466348688633</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00569239601667247</v>
+        <v>0.00606990612460296</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0225356533460227</v>
+        <v>-0.0229854526235569</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00815892460176234</v>
+        <v>0.00860872387929654</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0273590870235318</v>
+        <v>-0.027950251788291</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0129823582792714</v>
+        <v>0.0135735230440307</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1582,25 +1582,25 @@
         <v>0.269821515638706</v>
       </c>
       <c r="B27" t="n">
-        <v>0.260993551646647</v>
+        <v>0.284761974844393</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.159512876820028</v>
+        <v>-0.19861193298032</v>
       </c>
       <c r="D27" t="n">
-        <v>0.699155908097441</v>
+        <v>0.738254964257733</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.241725845588722</v>
+        <v>-0.288311955056303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.781368876866135</v>
+        <v>0.827954986333716</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.402497873403057</v>
+        <v>-0.463725331560449</v>
       </c>
       <c r="H27" t="n">
-        <v>0.94214090468047</v>
+        <v>1.00336836283786</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1623,25 +1623,25 @@
         <v>-0.00628213856151877</v>
       </c>
       <c r="B28" t="n">
-        <v>0.207781167575874</v>
+        <v>0.191307711037213</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.348082159223831</v>
+        <v>-0.320983323217735</v>
       </c>
       <c r="D28" t="n">
-        <v>0.335517882100793</v>
+        <v>0.308419046094697</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.413533227010231</v>
+        <v>-0.381245252194457</v>
       </c>
       <c r="F28" t="n">
-        <v>0.400968949887194</v>
+        <v>0.368680975071419</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.541526426236969</v>
+        <v>-0.49909080219338</v>
       </c>
       <c r="H28" t="n">
-        <v>0.528962149113932</v>
+        <v>0.486526525070343</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1664,25 +1664,25 @@
         <v>-0.662106971313399</v>
       </c>
       <c r="B29" t="n">
-        <v>0.622968862578519</v>
+        <v>0.628916585155033</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.68689075025506</v>
+        <v>-1.69667475389343</v>
       </c>
       <c r="D29" t="n">
-        <v>0.362676807628264</v>
+        <v>0.37246081126663</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.8831259419673</v>
+        <v>-1.89478347821726</v>
       </c>
       <c r="F29" t="n">
-        <v>0.558911999340498</v>
+        <v>0.570569535590465</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.26687476131566</v>
+        <v>-2.28219609467276</v>
       </c>
       <c r="H29" t="n">
-        <v>0.942660818688865</v>
+        <v>0.957982152045965</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1705,25 +1705,25 @@
         <v>-0.894384862636598</v>
       </c>
       <c r="B30" t="n">
-        <v>0.57371438064286</v>
+        <v>0.608468663832309</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.8381450187941</v>
+        <v>-1.89531581464075</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0493752935209071</v>
+        <v>0.10654608936755</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.0188650486966</v>
+        <v>-2.08698344374792</v>
       </c>
       <c r="F30" t="n">
-        <v>0.230095323423408</v>
+        <v>0.298213718474728</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.37227310717261</v>
+        <v>-2.46180014066863</v>
       </c>
       <c r="H30" t="n">
-        <v>0.58350338189941</v>
+        <v>0.67303041539543</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1746,25 +1746,25 @@
         <v>-34.8996431311676</v>
       </c>
       <c r="B31" t="n">
-        <v>13.1491356773197</v>
+        <v>12.8588041387607</v>
       </c>
       <c r="C31" t="n">
-        <v>-56.5299713203586</v>
+        <v>-56.0523759394289</v>
       </c>
       <c r="D31" t="n">
-        <v>-13.2693149419766</v>
+        <v>-13.7469103229062</v>
       </c>
       <c r="E31" t="n">
-        <v>-60.6719490587143</v>
+        <v>-60.1028992431386</v>
       </c>
       <c r="F31" t="n">
-        <v>-9.1273372036209</v>
+        <v>-9.69638701919662</v>
       </c>
       <c r="G31" t="n">
-        <v>-68.7718166359433</v>
+        <v>-68.0239225926152</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.02746962639194</v>
+        <v>-1.77536366972003</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1787,25 +1787,25 @@
         <v>-19.5940962867473</v>
       </c>
       <c r="B32" t="n">
-        <v>15.1674071131206</v>
+        <v>15.9514493550117</v>
       </c>
       <c r="C32" t="n">
-        <v>-44.5444809878306</v>
+        <v>-45.8342304757416</v>
       </c>
       <c r="D32" t="n">
-        <v>5.356288414336</v>
+        <v>6.646037902247</v>
       </c>
       <c r="E32" t="n">
-        <v>-49.3222142284636</v>
+        <v>-50.8589370225703</v>
       </c>
       <c r="F32" t="n">
-        <v>10.134021654969</v>
+        <v>11.6707444490757</v>
       </c>
       <c r="G32" t="n">
-        <v>-58.6653370101459</v>
+        <v>-60.6850298252576</v>
       </c>
       <c r="H32" t="n">
-        <v>19.4771444366512</v>
+        <v>21.4968372517629</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1828,25 +1828,25 @@
         <v>19.5469868566741</v>
       </c>
       <c r="B33" t="n">
-        <v>5.27875322435291</v>
+        <v>5.3928024397348</v>
       </c>
       <c r="C33" t="n">
-        <v>10.8634378026136</v>
+        <v>10.6758268433104</v>
       </c>
       <c r="D33" t="n">
-        <v>28.2305359107347</v>
+        <v>28.4181468700379</v>
       </c>
       <c r="E33" t="n">
-        <v>9.20063053694244</v>
+        <v>8.97709407479394</v>
       </c>
       <c r="F33" t="n">
-        <v>29.8933431764058</v>
+        <v>30.1168796385543</v>
       </c>
       <c r="G33" t="n">
-        <v>5.94891855074105</v>
+        <v>5.65512777191731</v>
       </c>
       <c r="H33" t="n">
-        <v>33.1450551626072</v>
+        <v>33.438845941431</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -1869,25 +1869,25 @@
         <v>22.3759943857316</v>
       </c>
       <c r="B34" t="n">
-        <v>5.20741353634251</v>
+        <v>5.05089050750939</v>
       </c>
       <c r="C34" t="n">
-        <v>13.8097991184482</v>
+        <v>14.0672795008787</v>
       </c>
       <c r="D34" t="n">
-        <v>30.9421896530151</v>
+        <v>30.6847092705846</v>
       </c>
       <c r="E34" t="n">
-        <v>12.1694638545003</v>
+        <v>12.4762489910132</v>
       </c>
       <c r="F34" t="n">
-        <v>32.5825249169629</v>
+        <v>32.27573978045</v>
       </c>
       <c r="G34" t="n">
-        <v>8.96169711611333</v>
+        <v>9.36490043838745</v>
       </c>
       <c r="H34" t="n">
-        <v>35.7902916553499</v>
+        <v>35.3870883330758</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -1910,25 +1910,25 @@
         <v>23.1699285750562</v>
       </c>
       <c r="B35" t="n">
-        <v>5.54982711835401</v>
+        <v>5.40607805787437</v>
       </c>
       <c r="C35" t="n">
-        <v>14.0404629653639</v>
+        <v>14.2769301698529</v>
       </c>
       <c r="D35" t="n">
-        <v>32.2993941847486</v>
+        <v>32.0629269802595</v>
       </c>
       <c r="E35" t="n">
-        <v>12.2922674230824</v>
+        <v>12.5740155816225</v>
       </c>
       <c r="F35" t="n">
-        <v>34.0475897270301</v>
+        <v>33.76584156849</v>
       </c>
       <c r="G35" t="n">
-        <v>8.87357391817629</v>
+        <v>9.24387149797184</v>
       </c>
       <c r="H35" t="n">
-        <v>37.4662832319361</v>
+        <v>37.0959856521406</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -1951,28 +1951,28 @@
         <v>-0.0175488701495728</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00855367840075296</v>
+        <v>0.00918679860286076</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0316196711188114</v>
+        <v>-0.0326611538512788</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0034780691803342</v>
+        <v>-0.00243658644786687</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0343140798150486</v>
+        <v>-0.0355549954111799</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.000783660484097021</v>
+        <v>0.000457255112034267</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0395831457099124</v>
+        <v>-0.0412140633505421</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0044854054107668</v>
+        <v>0.0061163230513965</v>
       </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J36" t="s">
         <v>30</v>
@@ -1992,25 +1992,25 @@
         <v>-0.00933389303911543</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00954027674005628</v>
+        <v>0.00923822148000523</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.025027648276508</v>
+        <v>-0.024530767373724</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00635986219827716</v>
+        <v>0.00586298129549318</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0280328354496257</v>
+        <v>-0.0274408071399257</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00936504937139489</v>
+        <v>0.00877302106169483</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0339096459215004</v>
+        <v>-0.0331315515716089</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0152418598432696</v>
+        <v>0.0144637654933781</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
@@ -2033,28 +2033,28 @@
         <v>5.03059222220683</v>
       </c>
       <c r="B38" t="n">
-        <v>2.64127178800421</v>
+        <v>2.74094124470542</v>
       </c>
       <c r="C38" t="n">
-        <v>0.685700130939911</v>
+        <v>0.521743874666411</v>
       </c>
       <c r="D38" t="n">
-        <v>9.37548431347375</v>
+        <v>9.53944056974725</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.146300482281414</v>
+        <v>-0.341652617415797</v>
       </c>
       <c r="F38" t="n">
-        <v>10.2074849266951</v>
+        <v>10.4028370618295</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.77332390369201</v>
+        <v>-2.03007242415434</v>
       </c>
       <c r="H38" t="n">
-        <v>11.8345083481057</v>
+        <v>12.091256868568</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J38" t="s">
         <v>30</v>
@@ -2074,25 +2074,25 @@
         <v>8.13046710158778</v>
       </c>
       <c r="B39" t="n">
-        <v>4.30361843925513</v>
+        <v>4.11812963356768</v>
       </c>
       <c r="C39" t="n">
-        <v>1.0510147690131</v>
+        <v>1.35614385436895</v>
       </c>
       <c r="D39" t="n">
-        <v>15.2099194341625</v>
+        <v>14.9047903488066</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.30462503935227</v>
+        <v>0.058933019795127</v>
       </c>
       <c r="F39" t="n">
-        <v>16.5655592425278</v>
+        <v>16.2020011833804</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.95565399793343</v>
+        <v>-2.47783483448257</v>
       </c>
       <c r="H39" t="n">
-        <v>19.216588201109</v>
+        <v>18.7387690376581</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
@@ -2115,28 +2115,28 @@
         <v>-29.9701578622211</v>
       </c>
       <c r="B40" t="n">
-        <v>16.3660004664084</v>
+        <v>15.6968530918507</v>
       </c>
       <c r="C40" t="n">
-        <v>-56.8922286294628</v>
+        <v>-55.7914811983155</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.04808709497929</v>
+        <v>-4.14883452612667</v>
       </c>
       <c r="E40" t="n">
-        <v>-62.0475187763815</v>
+        <v>-60.7359899222484</v>
       </c>
       <c r="F40" t="n">
-        <v>2.10720305193934</v>
+        <v>0.795674197806296</v>
       </c>
       <c r="G40" t="n">
-        <v>-72.128975063689</v>
+        <v>-70.4052514268285</v>
       </c>
       <c r="H40" t="n">
-        <v>12.1886593392469</v>
+        <v>10.4649357023863</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J40" t="s">
         <v>30</v>
@@ -2156,25 +2156,25 @@
         <v>-21.8007820108663</v>
       </c>
       <c r="B41" t="n">
-        <v>20.3355278420507</v>
+        <v>19.1856100672288</v>
       </c>
       <c r="C41" t="n">
-        <v>-55.2527253110398</v>
+        <v>-53.3611105714576</v>
       </c>
       <c r="D41" t="n">
-        <v>11.6511612893072</v>
+        <v>9.75954654972504</v>
       </c>
       <c r="E41" t="n">
-        <v>-61.6584165812857</v>
+        <v>-59.4045777426347</v>
       </c>
       <c r="F41" t="n">
-        <v>18.0568525595531</v>
+        <v>15.8030137209021</v>
       </c>
       <c r="G41" t="n">
-        <v>-74.185101731989</v>
+        <v>-71.2229135440476</v>
       </c>
       <c r="H41" t="n">
-        <v>30.5835377102564</v>
+        <v>27.621349522315</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -2197,28 +2197,28 @@
         <v>19.3024695247939</v>
       </c>
       <c r="B42" t="n">
-        <v>7.67501879846515</v>
+        <v>7.31609760160799</v>
       </c>
       <c r="C42" t="n">
-        <v>6.67706360131877</v>
+        <v>7.2674889701488</v>
       </c>
       <c r="D42" t="n">
-        <v>31.9278754482691</v>
+        <v>31.3374500794391</v>
       </c>
       <c r="E42" t="n">
-        <v>4.25943267980224</v>
+        <v>4.96291822564229</v>
       </c>
       <c r="F42" t="n">
-        <v>34.3455063697856</v>
+        <v>33.6420208239456</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.46837890005229</v>
+        <v>0.456202103051766</v>
       </c>
       <c r="H42" t="n">
-        <v>39.0733179496402</v>
+        <v>38.1487369465361</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
         <v>30</v>
@@ -2238,25 +2238,25 @@
         <v>17.7342872049162</v>
       </c>
       <c r="B43" t="n">
-        <v>4.72745849760586</v>
+        <v>4.95756995401835</v>
       </c>
       <c r="C43" t="n">
-        <v>9.95761797635454</v>
+        <v>9.57908463055599</v>
       </c>
       <c r="D43" t="n">
-        <v>25.5109564334778</v>
+        <v>25.8894897792764</v>
       </c>
       <c r="E43" t="n">
-        <v>8.46846854960869</v>
+        <v>8.01745009504021</v>
       </c>
       <c r="F43" t="n">
-        <v>27.0001058602237</v>
+        <v>27.4511243147922</v>
       </c>
       <c r="G43" t="n">
-        <v>5.55635411508348</v>
+        <v>4.9635870033649</v>
       </c>
       <c r="H43" t="n">
-        <v>29.9122202947489</v>
+        <v>30.5049874064675</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -2279,25 +2279,25 @@
         <v>14.5720690148713</v>
       </c>
       <c r="B44" t="n">
-        <v>3.69897822465966</v>
+        <v>3.74162847291853</v>
       </c>
       <c r="C44" t="n">
-        <v>8.48724983530621</v>
+        <v>8.41709017692036</v>
       </c>
       <c r="D44" t="n">
-        <v>20.6568881944365</v>
+        <v>20.7270478528223</v>
       </c>
       <c r="E44" t="n">
-        <v>7.32207169453841</v>
+        <v>7.23847720795102</v>
       </c>
       <c r="F44" t="n">
-        <v>21.8220663352043</v>
+        <v>21.9056608217917</v>
       </c>
       <c r="G44" t="n">
-        <v>5.04350110814806</v>
+        <v>4.9336340686332</v>
       </c>
       <c r="H44" t="n">
-        <v>24.1006369215946</v>
+        <v>24.2105039611095</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -2320,25 +2320,25 @@
         <v>-46.302576966921</v>
       </c>
       <c r="B45" t="n">
-        <v>13.8826058742779</v>
+        <v>13.8980520850275</v>
       </c>
       <c r="C45" t="n">
-        <v>-69.1394636301082</v>
+        <v>-69.1648726467913</v>
       </c>
       <c r="D45" t="n">
-        <v>-23.4656903037339</v>
+        <v>-23.4402812870507</v>
       </c>
       <c r="E45" t="n">
-        <v>-73.5124844805057</v>
+        <v>-73.542759053575</v>
       </c>
       <c r="F45" t="n">
-        <v>-19.0926694533363</v>
+        <v>-19.062394880267</v>
       </c>
       <c r="G45" t="n">
-        <v>-82.0641696990609</v>
+        <v>-82.1039591379519</v>
       </c>
       <c r="H45" t="n">
-        <v>-10.5409842347811</v>
+        <v>-10.5011947958901</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -2361,25 +2361,25 @@
         <v>-12.9698321929782</v>
       </c>
       <c r="B46" t="n">
-        <v>16.8290925525223</v>
+        <v>17.0936314551797</v>
       </c>
       <c r="C46" t="n">
-        <v>-40.6536894418774</v>
+        <v>-41.0888559367488</v>
       </c>
       <c r="D46" t="n">
-        <v>14.714025055921</v>
+        <v>15.1491915507923</v>
       </c>
       <c r="E46" t="n">
-        <v>-45.9548535959219</v>
+        <v>-46.4733498451304</v>
       </c>
       <c r="F46" t="n">
-        <v>20.0151892099655</v>
+        <v>20.5336854591739</v>
       </c>
       <c r="G46" t="n">
-        <v>-56.3215746082757</v>
+        <v>-57.003026821521</v>
       </c>
       <c r="H46" t="n">
-        <v>30.3819102223193</v>
+        <v>31.0633624355646</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -2402,25 +2402,25 @@
         <v>18.7445305311422</v>
       </c>
       <c r="B47" t="n">
-        <v>6.10177497745899</v>
+        <v>6.57300368233587</v>
       </c>
       <c r="C47" t="n">
-        <v>8.70711069322221</v>
+        <v>7.93193947369973</v>
       </c>
       <c r="D47" t="n">
-        <v>28.7819503690623</v>
+        <v>29.5571215885847</v>
       </c>
       <c r="E47" t="n">
-        <v>6.78505157532263</v>
+        <v>5.86144331376393</v>
       </c>
       <c r="F47" t="n">
-        <v>30.7040094869619</v>
+        <v>31.6276177485205</v>
       </c>
       <c r="G47" t="n">
-        <v>3.02635818920789</v>
+        <v>1.81247304544503</v>
       </c>
       <c r="H47" t="n">
-        <v>34.4627028730766</v>
+        <v>35.6765880168394</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
@@ -2443,25 +2443,25 @@
         <v>0.000638368597186729</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000507067475863714</v>
+        <v>0.000496381918031969</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.000195757400609081</v>
+        <v>-0.00017817965797586</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00147249459498254</v>
+        <v>0.00145491685234932</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.000355483655506151</v>
+        <v>-0.00033453996215593</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00163222084987961</v>
+        <v>0.00161127715652939</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.000667837220638199</v>
+        <v>-0.000640311223663623</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00194457441501166</v>
+        <v>0.00191704841803708</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -2484,25 +2484,25 @@
         <v>0.00661021788226838</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00250262477064691</v>
+        <v>0.00233947746287496</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00249340013455421</v>
+        <v>0.00276177745583907</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0107270356299825</v>
+        <v>0.0104586583086977</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00170507333180043</v>
+        <v>0.00202484205503346</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0115153624327363</v>
+        <v>0.0111955937095033</v>
       </c>
       <c r="G49" t="n">
-        <v>0.000163456473081937</v>
+        <v>0.000583723937902481</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0130569792914548</v>
+        <v>0.0126367118266343</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
@@ -2525,25 +2525,25 @@
         <v>13185.094164748</v>
       </c>
       <c r="B50" t="n">
-        <v>4857.79554403204</v>
+        <v>4885.64660516145</v>
       </c>
       <c r="C50" t="n">
-        <v>5194.02049481526</v>
+        <v>5148.20549925739</v>
       </c>
       <c r="D50" t="n">
-        <v>21176.1678346807</v>
+        <v>21221.9828302386</v>
       </c>
       <c r="E50" t="n">
-        <v>3663.81489844517</v>
+        <v>3609.22681863153</v>
       </c>
       <c r="F50" t="n">
-        <v>22706.3734310508</v>
+        <v>22760.9615108644</v>
       </c>
       <c r="G50" t="n">
-        <v>671.412843321428</v>
+        <v>599.668509852079</v>
       </c>
       <c r="H50" t="n">
-        <v>25698.7754861745</v>
+        <v>25770.5198196439</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>

--- a/Output_code/Data/Table_3_and_Appendix_H_granted.xlsx
+++ b/Output_code/Data/Table_3_and_Appendix_H_granted.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">***</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group1</t>
+    <t xml:space="preserve">Q1</t>
   </si>
   <si>
     <t xml:space="preserve">Relatedness_Cos2</t>
@@ -68,79 +68,79 @@
     <t xml:space="preserve">non_standard</t>
   </si>
   <si>
+    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializations_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueCodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueSubclass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herfindahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIcodes</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group2</t>
+    <t xml:space="preserve">IQR</t>
   </si>
   <si>
     <t xml:space="preserve">**</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specializations_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueSubclass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herfindahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shannon</t>
+    <t xml:space="preserve">Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate_granted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_claims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_number_of_family_members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_backward_citations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_forward_citations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_time_filing_to_publication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_time_filing_to_grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_time_publication_to_grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_granted_na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_granted_yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate_success_subs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate_success_HQ</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIcodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate_granted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_claims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_number_of_family_members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_backward_citations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_forward_citations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_time_filing_to_publication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_time_filing_to_grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg_time_publication_to_grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_granted_na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_granted_yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate_success_subs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate_success_HQ</t>
   </si>
   <si>
     <t xml:space="preserve">n_granted_yes_HQ</t>
@@ -557,25 +557,25 @@
         <v>2.36236721567099</v>
       </c>
       <c r="B2" t="n">
-        <v>0.482867122835574</v>
+        <v>0.491295727813073</v>
       </c>
       <c r="C2" t="n">
-        <v>1.56805079860647</v>
+        <v>1.55418574341848</v>
       </c>
       <c r="D2" t="n">
-        <v>3.15668363273551</v>
+        <v>3.17054868792349</v>
       </c>
       <c r="E2" t="n">
-        <v>1.41594765491326</v>
+        <v>1.39942758915736</v>
       </c>
       <c r="F2" t="n">
-        <v>3.30878677642871</v>
+        <v>3.32530684218461</v>
       </c>
       <c r="G2" t="n">
-        <v>1.11850150724655</v>
+        <v>1.09678942082451</v>
       </c>
       <c r="H2" t="n">
-        <v>3.60623292409542</v>
+        <v>3.62794501051746</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -595,37 +595,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.715910791797635</v>
+        <v>49.8945372912541</v>
       </c>
       <c r="B3" t="n">
-        <v>0.445871977478679</v>
+        <v>12.6616653474309</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0175486111547922</v>
+        <v>29.0660977947303</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44937019475006</v>
+        <v>70.7229767877779</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.157998284060576</v>
+        <v>25.0776732102896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.58981986765585</v>
+        <v>74.7114013722186</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.432655422187443</v>
+        <v>17.2780873562722</v>
       </c>
       <c r="H3" t="n">
-        <v>1.86447700578271</v>
+        <v>82.510987226236</v>
       </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -636,37 +636,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.986659906287153</v>
+        <v>2.67622026855953</v>
       </c>
       <c r="B4" t="n">
-        <v>0.493482563501624</v>
+        <v>0.444545328078538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.174881089326981</v>
+        <v>1.94494320387033</v>
       </c>
       <c r="D4" t="n">
-        <v>1.79843872324733</v>
+        <v>3.40749733324873</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0194340818239691</v>
+        <v>1.80491142552559</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95388573075034</v>
+        <v>3.54752911159347</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.284551177293032</v>
+        <v>1.53107150342921</v>
       </c>
       <c r="H4" t="n">
-        <v>2.25787098986734</v>
+        <v>3.82136903368985</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -677,28 +677,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49.8945372912541</v>
+        <v>0.3338351535722</v>
       </c>
       <c r="B5" t="n">
-        <v>13.2015293729329</v>
+        <v>0.0784090288513394</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1780214727795</v>
+        <v>0.204852301111746</v>
       </c>
       <c r="D5" t="n">
-        <v>71.6110531097287</v>
+        <v>0.462818006032653</v>
       </c>
       <c r="E5" t="n">
-        <v>24.0195397203056</v>
+        <v>0.180153457023574</v>
       </c>
       <c r="F5" t="n">
-        <v>75.7695348622026</v>
+        <v>0.487516850120825</v>
       </c>
       <c r="G5" t="n">
-        <v>15.887397626579</v>
+        <v>0.131853495251149</v>
       </c>
       <c r="H5" t="n">
-        <v>83.9016769559293</v>
+        <v>0.53581681189325</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -707,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -718,37 +718,37 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24.1129060266511</v>
+        <v>5.55794198958039</v>
       </c>
       <c r="B6" t="n">
-        <v>6.49723309188524</v>
+        <v>1.17436949842173</v>
       </c>
       <c r="C6" t="n">
-        <v>13.4249575904998</v>
+        <v>3.62610416467664</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8008544628023</v>
+        <v>7.48977981448414</v>
       </c>
       <c r="E6" t="n">
-        <v>11.378329166556</v>
+        <v>3.25617777267379</v>
       </c>
       <c r="F6" t="n">
-        <v>36.8474828867461</v>
+        <v>7.85970620648698</v>
       </c>
       <c r="G6" t="n">
-        <v>7.37603358195468</v>
+        <v>2.53276616164601</v>
       </c>
       <c r="H6" t="n">
-        <v>40.8497784713475</v>
+        <v>8.58311781751477</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -759,34 +759,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29.8176336618877</v>
+        <v>-0.0466617699430823</v>
       </c>
       <c r="B7" t="n">
-        <v>9.18240428200193</v>
+        <v>0.016637823488018</v>
       </c>
       <c r="C7" t="n">
-        <v>14.7125786179945</v>
+        <v>-0.0740309895808719</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9226887057809</v>
+        <v>-0.0192925503052927</v>
       </c>
       <c r="E7" t="n">
-        <v>11.8201212691639</v>
+        <v>-0.0792719039795976</v>
       </c>
       <c r="F7" t="n">
-        <v>47.8151460546115</v>
+        <v>-0.014051635906567</v>
       </c>
       <c r="G7" t="n">
-        <v>6.16376023145073</v>
+        <v>-0.0895208032482167</v>
       </c>
       <c r="H7" t="n">
-        <v>53.4715070923247</v>
+        <v>-0.00380273663794789</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -800,28 +800,28 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.67622026855953</v>
+        <v>0.260972444802579</v>
       </c>
       <c r="B8" t="n">
-        <v>0.481053487738492</v>
+        <v>0.0541070654857205</v>
       </c>
       <c r="C8" t="n">
-        <v>1.88488728122971</v>
+        <v>0.171966322078568</v>
       </c>
       <c r="D8" t="n">
-        <v>3.46755325588935</v>
+        <v>0.349978567526589</v>
       </c>
       <c r="E8" t="n">
-        <v>1.73335543259209</v>
+        <v>0.154922596450566</v>
       </c>
       <c r="F8" t="n">
-        <v>3.61908510452697</v>
+        <v>0.367022293154591</v>
       </c>
       <c r="G8" t="n">
-        <v>1.43702648414518</v>
+        <v>0.121592644111363</v>
       </c>
       <c r="H8" t="n">
-        <v>3.91541405297388</v>
+        <v>0.400352245493795</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -841,37 +841,37 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.69657219368637</v>
+        <v>0.603476095268161</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416623792018846</v>
+        <v>0.0729758275873872</v>
       </c>
       <c r="C9" t="n">
-        <v>1.01122605581536</v>
+        <v>0.483430858886909</v>
       </c>
       <c r="D9" t="n">
-        <v>2.38191833155737</v>
+        <v>0.723521331649413</v>
       </c>
       <c r="E9" t="n">
-        <v>0.879989561329427</v>
+        <v>0.460443473196882</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5131548260433</v>
+        <v>0.74650871733944</v>
       </c>
       <c r="G9" t="n">
-        <v>0.623349305445817</v>
+        <v>0.415490363403051</v>
       </c>
       <c r="H9" t="n">
-        <v>2.76979508192691</v>
+        <v>0.79146182713327</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -882,37 +882,37 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.54463485663082</v>
+        <v>0.715910791797635</v>
       </c>
       <c r="B10" t="n">
-        <v>0.652268114895666</v>
+        <v>0.446210832753322</v>
       </c>
       <c r="C10" t="n">
-        <v>0.471653807627453</v>
+        <v>-0.0181060280815801</v>
       </c>
       <c r="D10" t="n">
-        <v>2.6176159056342</v>
+        <v>1.44992761167685</v>
       </c>
       <c r="E10" t="n">
-        <v>0.266189351435318</v>
+        <v>-0.158662440398877</v>
       </c>
       <c r="F10" t="n">
-        <v>2.82308036182633</v>
+        <v>1.59048402399415</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.135607807340412</v>
+        <v>-0.433528313374923</v>
       </c>
       <c r="H10" t="n">
-        <v>3.22487752060206</v>
+        <v>1.86534989697019</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -923,37 +923,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3338351535722</v>
+        <v>24.1129060266511</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0757704208023328</v>
+        <v>6.92271947592954</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209192811352362</v>
+        <v>12.725032488747</v>
       </c>
       <c r="D11" t="n">
-        <v>0.458477495792037</v>
+        <v>35.5007795645552</v>
       </c>
       <c r="E11" t="n">
-        <v>0.185325128799627</v>
+        <v>10.5443758538292</v>
       </c>
       <c r="F11" t="n">
-        <v>0.482345178344772</v>
+        <v>37.681436199473</v>
       </c>
       <c r="G11" t="n">
-        <v>0.13865054958539</v>
+        <v>6.27998065665657</v>
       </c>
       <c r="H11" t="n">
-        <v>0.529019757559009</v>
+        <v>41.9458313966456</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -964,37 +964,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.225868285504047</v>
+        <v>1.69657219368637</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0759810827561757</v>
+        <v>0.484288467558593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.100879404370138</v>
+        <v>0.899917664552481</v>
       </c>
       <c r="D12" t="n">
-        <v>0.350857166637956</v>
+        <v>2.49322672282025</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0769453633019428</v>
+        <v>0.747366797271524</v>
       </c>
       <c r="F12" t="n">
-        <v>0.374791207706151</v>
+        <v>2.64577759010121</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0301410163241385</v>
+        <v>0.449045101255431</v>
       </c>
       <c r="H12" t="n">
-        <v>0.421595554683956</v>
+        <v>2.9440992861173</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
       <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
         <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1005,37 +1005,37 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0696925605582949</v>
+        <v>0.225868285504047</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0964301444504398</v>
+        <v>0.0783999634466277</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0889350270626785</v>
+        <v>0.0969003456343445</v>
       </c>
       <c r="D13" t="n">
-        <v>0.228320148179268</v>
+        <v>0.35483622537375</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.119310522564567</v>
+        <v>0.0722043571486568</v>
       </c>
       <c r="F13" t="n">
-        <v>0.258695643681157</v>
+        <v>0.379532213859437</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.178711491546038</v>
+        <v>0.0239099796655341</v>
       </c>
       <c r="H13" t="n">
-        <v>0.318096612662628</v>
+        <v>0.42782659134256</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1046,37 +1046,37 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.55794198958039</v>
+        <v>3.67956953642384</v>
       </c>
       <c r="B14" t="n">
-        <v>1.20682863919948</v>
+        <v>0.897683779953953</v>
       </c>
       <c r="C14" t="n">
-        <v>3.57270887809725</v>
+        <v>2.20287971839959</v>
       </c>
       <c r="D14" t="n">
-        <v>7.54317510106353</v>
+        <v>5.15625935444809</v>
       </c>
       <c r="E14" t="n">
-        <v>3.19255785674941</v>
+        <v>1.92010932771409</v>
       </c>
       <c r="F14" t="n">
-        <v>7.92332612241136</v>
+        <v>5.43902974513359</v>
       </c>
       <c r="G14" t="n">
-        <v>2.44915141500254</v>
+        <v>1.36713611926246</v>
       </c>
       <c r="H14" t="n">
-        <v>8.66673256415824</v>
+        <v>5.99200295358522</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1087,37 +1087,37 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.67956953642384</v>
+        <v>-0.0193644487261431</v>
       </c>
       <c r="B15" t="n">
-        <v>0.917895306345487</v>
+        <v>0.0135890562371945</v>
       </c>
       <c r="C15" t="n">
-        <v>2.16963175748551</v>
+        <v>-0.0417184462363281</v>
       </c>
       <c r="D15" t="n">
-        <v>5.18950731536217</v>
+        <v>0.00298954878404187</v>
       </c>
       <c r="E15" t="n">
-        <v>1.88049473598669</v>
+        <v>-0.0459989989510444</v>
       </c>
       <c r="F15" t="n">
-        <v>5.478644336861</v>
+        <v>0.00727010149875814</v>
       </c>
       <c r="G15" t="n">
-        <v>1.31507122727787</v>
+        <v>-0.0543698575931563</v>
       </c>
       <c r="H15" t="n">
-        <v>6.04406784556982</v>
+        <v>0.01564096014087</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1128,37 +1128,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.21474954867567</v>
+        <v>0.132401595910723</v>
       </c>
       <c r="B16" t="n">
-        <v>1.16859813837385</v>
+        <v>0.0472909892253698</v>
       </c>
       <c r="C16" t="n">
-        <v>2.29240561105069</v>
+        <v>0.0546079186349893</v>
       </c>
       <c r="D16" t="n">
-        <v>6.13709348630064</v>
+        <v>0.210195273186456</v>
       </c>
       <c r="E16" t="n">
-        <v>1.92429719746293</v>
+        <v>0.0397112570289978</v>
       </c>
       <c r="F16" t="n">
-        <v>6.50520189988841</v>
+        <v>0.225091934792448</v>
       </c>
       <c r="G16" t="n">
-        <v>1.20444074422464</v>
+        <v>0.01058000766617</v>
       </c>
       <c r="H16" t="n">
-        <v>7.22505835312669</v>
+        <v>0.254223184155275</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1169,37 +1169,37 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0466617699430823</v>
+        <v>0.198909645931965</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0166077624334401</v>
+        <v>0.0512053627539753</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0739815391460913</v>
+        <v>0.114676824201675</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0193420007400733</v>
+        <v>0.283142467662254</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0792129843126249</v>
+        <v>0.0985471349341732</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0141105555735396</v>
+        <v>0.299272156929757</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0894433659716241</v>
+        <v>0.0670046314777245</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00388017391454051</v>
+        <v>0.330814660386205</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1210,37 +1210,37 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0193644487261431</v>
+        <v>0.986659906287153</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0139613196438835</v>
+        <v>0.49823685666936</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0423308195403315</v>
+        <v>0.167060277066056</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00360192208804521</v>
+        <v>1.80625953550825</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0467286352281548</v>
+        <v>0.0101156672152071</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00799973777586851</v>
+        <v>1.9632041453591</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.055328808128787</v>
+        <v>-0.296798236493119</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0165999106765007</v>
+        <v>2.27011804906742</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1251,37 +1251,37 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0114765801221486</v>
+        <v>29.8176336618877</v>
       </c>
       <c r="B19" t="n">
-        <v>0.015393815488636</v>
+        <v>9.41597115466019</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0367994066009548</v>
+        <v>14.3283611124717</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0138462463566576</v>
+        <v>45.3069062113037</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0416484584798752</v>
+        <v>11.3623301987537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0186952982355779</v>
+        <v>48.2729371250217</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0511310488208749</v>
+        <v>5.56209196748303</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0281778885765777</v>
+        <v>54.0731753562924</v>
       </c>
       <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
         <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1292,37 +1292,37 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.260972444802579</v>
+        <v>1.54463485663082</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0571613020813795</v>
+        <v>0.666785470684141</v>
       </c>
       <c r="C20" t="n">
-        <v>0.166942102878709</v>
+        <v>0.447772757355412</v>
       </c>
       <c r="D20" t="n">
-        <v>0.355002786726448</v>
+        <v>2.64149695590624</v>
       </c>
       <c r="E20" t="n">
-        <v>0.148936292723075</v>
+        <v>0.237735334089908</v>
       </c>
       <c r="F20" t="n">
-        <v>0.373008596882083</v>
+        <v>2.85153437917174</v>
       </c>
       <c r="G20" t="n">
-        <v>0.113724930640945</v>
+        <v>-0.173004515851523</v>
       </c>
       <c r="H20" t="n">
-        <v>0.408219958964212</v>
+        <v>3.26227422911317</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1333,37 +1333,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.132401595910723</v>
+        <v>0.0696925605582949</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0458355259669548</v>
+        <v>0.0936574536771652</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0570021556950821</v>
+        <v>-0.0843739507406418</v>
       </c>
       <c r="D21" t="n">
-        <v>0.207801036126363</v>
+        <v>0.223759071857232</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0425639650154913</v>
+        <v>-0.113876048648949</v>
       </c>
       <c r="F21" t="n">
-        <v>0.222239226805954</v>
+        <v>0.253261169765539</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0143292810198472</v>
+        <v>-0.171569040114083</v>
       </c>
       <c r="H21" t="n">
-        <v>0.250473910801598</v>
+        <v>0.310954161230672</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1374,37 +1374,37 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.120009290784235</v>
+        <v>4.21474954867567</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0639926178077807</v>
+        <v>1.1565534350276</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0147414344904353</v>
+        <v>2.31221914805526</v>
       </c>
       <c r="D22" t="n">
-        <v>0.225277147078034</v>
+        <v>6.11727994929607</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00541624011901566</v>
+        <v>1.94790481602156</v>
       </c>
       <c r="F22" t="n">
-        <v>0.245434821687485</v>
+        <v>6.48159428132977</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0448356926886086</v>
+        <v>1.23546790004456</v>
       </c>
       <c r="H22" t="n">
-        <v>0.284854274257078</v>
+        <v>7.19403119730677</v>
       </c>
       <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>27</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1415,37 +1415,37 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.603476095268161</v>
+        <v>-0.0114765801221486</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0741479944329103</v>
+        <v>0.0163436094862307</v>
       </c>
       <c r="C23" t="n">
-        <v>0.481502644426024</v>
+        <v>-0.0383618177269981</v>
       </c>
       <c r="D23" t="n">
-        <v>0.725449546110298</v>
+        <v>0.0154086574827008</v>
       </c>
       <c r="E23" t="n">
-        <v>0.458146026179657</v>
+        <v>-0.0435100547151607</v>
       </c>
       <c r="F23" t="n">
-        <v>0.748806164356665</v>
+        <v>0.0205568944708635</v>
       </c>
       <c r="G23" t="n">
-        <v>0.412470861608984</v>
+        <v>-0.0535777181586788</v>
       </c>
       <c r="H23" t="n">
-        <v>0.794481328927338</v>
+        <v>0.0306245579143816</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1456,37 +1456,37 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.198909645931965</v>
+        <v>0.120009290784235</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0525864941064418</v>
+        <v>0.0741854169143865</v>
       </c>
       <c r="C24" t="n">
-        <v>0.112404863126868</v>
+        <v>-0.00202572003993118</v>
       </c>
       <c r="D24" t="n">
-        <v>0.285414428737062</v>
+        <v>0.2420443016084</v>
       </c>
       <c r="E24" t="n">
-        <v>0.095840117483339</v>
+        <v>-0.0253941263679629</v>
       </c>
       <c r="F24" t="n">
-        <v>0.301979174380591</v>
+        <v>0.265412707936432</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0634468371137709</v>
+        <v>-0.071092343187225</v>
       </c>
       <c r="H24" t="n">
-        <v>0.334372454750159</v>
+        <v>0.311110924755694</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1500,34 +1500,34 @@
         <v>0.206895908004779</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0646539646996808</v>
+        <v>0.064276144128875</v>
       </c>
       <c r="C25" t="n">
-        <v>0.100540136073804</v>
+        <v>0.10116165091278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.313251679935754</v>
+        <v>0.312630165096778</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0801741371934046</v>
+        <v>0.0809146655121839</v>
       </c>
       <c r="F25" t="n">
-        <v>0.333617678816153</v>
+        <v>0.332877150497374</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0403472949384012</v>
+        <v>0.0413205607287969</v>
       </c>
       <c r="H25" t="n">
-        <v>0.373444521071157</v>
+        <v>0.372471255280761</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1541,34 +1541,34 @@
         <v>-0.00718836437213018</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00805973890378914</v>
+        <v>0.00863823441854379</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0204466348688633</v>
+        <v>-0.0213982599906347</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00606990612460296</v>
+        <v>0.00702153124637435</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0229854526235569</v>
+        <v>-0.024119303832476</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00860872387929654</v>
+        <v>0.00974257508821564</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.027950251788291</v>
+        <v>-0.029440456234299</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0135735230440307</v>
+        <v>0.0150637274900386</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
         <v>30</v>
-      </c>
-      <c r="K26" t="s">
-        <v>31</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -1582,34 +1582,34 @@
         <v>0.269821515638706</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284761974844393</v>
+        <v>0.2840680186055</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.19861193298032</v>
+        <v>-0.197470374967342</v>
       </c>
       <c r="D27" t="n">
-        <v>0.738254964257733</v>
+        <v>0.737113406244755</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.288311955056303</v>
+        <v>-0.286951800828074</v>
       </c>
       <c r="F27" t="n">
-        <v>0.827954986333716</v>
+        <v>0.826594832105487</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.463725331560449</v>
+        <v>-0.461937700289063</v>
       </c>
       <c r="H27" t="n">
-        <v>1.00336836283786</v>
+        <v>1.00158073156648</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -1623,34 +1623,34 @@
         <v>-0.00628213856151877</v>
       </c>
       <c r="B28" t="n">
-        <v>0.191307711037213</v>
+        <v>0.204650348924235</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.320983323217735</v>
+        <v>-0.342931962541885</v>
       </c>
       <c r="D28" t="n">
-        <v>0.308419046094697</v>
+        <v>0.330367685418848</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.381245252194457</v>
+        <v>-0.407396822453019</v>
       </c>
       <c r="F28" t="n">
-        <v>0.368680975071419</v>
+        <v>0.394832545329982</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.49909080219338</v>
+        <v>-0.533461437390348</v>
       </c>
       <c r="H28" t="n">
-        <v>0.486526525070343</v>
+        <v>0.52089716026731</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -1664,34 +1664,34 @@
         <v>-0.662106971313399</v>
       </c>
       <c r="B29" t="n">
-        <v>0.628916585155033</v>
+        <v>0.656133626375754</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.69667475389343</v>
+        <v>-1.74144678670151</v>
       </c>
       <c r="D29" t="n">
-        <v>0.37246081126663</v>
+        <v>0.417232844074716</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.89478347821726</v>
+        <v>-1.94812887900988</v>
       </c>
       <c r="F29" t="n">
-        <v>0.570569535590465</v>
+        <v>0.623914936383078</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.28219609467276</v>
+        <v>-2.35230719285734</v>
       </c>
       <c r="H29" t="n">
-        <v>0.957982152045965</v>
+        <v>1.02809325023054</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -1705,34 +1705,34 @@
         <v>-0.894384862636598</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608468663832309</v>
+        <v>0.601834539451321</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.89531581464075</v>
+        <v>-1.88440268003402</v>
       </c>
       <c r="D30" t="n">
-        <v>0.10654608936755</v>
+        <v>0.0956329547608246</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.08698344374792</v>
+        <v>-2.07398055996119</v>
       </c>
       <c r="F30" t="n">
-        <v>0.298213718474728</v>
+        <v>0.285210834687991</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.46180014066863</v>
+        <v>-2.4447106362632</v>
       </c>
       <c r="H30" t="n">
-        <v>0.67303041539543</v>
+        <v>0.655940910990004</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -1746,34 +1746,34 @@
         <v>-34.8996431311676</v>
       </c>
       <c r="B31" t="n">
-        <v>12.8588041387607</v>
+        <v>11.8678847203685</v>
       </c>
       <c r="C31" t="n">
-        <v>-56.0523759394289</v>
+        <v>-54.4223134961737</v>
       </c>
       <c r="D31" t="n">
-        <v>-13.7469103229062</v>
+        <v>-15.3769727661614</v>
       </c>
       <c r="E31" t="n">
-        <v>-60.1028992431386</v>
+        <v>-58.1606971830898</v>
       </c>
       <c r="F31" t="n">
-        <v>-9.69638701919662</v>
+        <v>-11.6385890792454</v>
       </c>
       <c r="G31" t="n">
-        <v>-68.0239225926152</v>
+        <v>-65.4713141708368</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.77536366972003</v>
+        <v>-4.32797209149839</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -1787,34 +1787,34 @@
         <v>-19.5940962867473</v>
       </c>
       <c r="B32" t="n">
-        <v>15.9514493550117</v>
+        <v>16.0491606137173</v>
       </c>
       <c r="C32" t="n">
-        <v>-45.8342304757416</v>
+        <v>-45.9949654963123</v>
       </c>
       <c r="D32" t="n">
-        <v>6.646037902247</v>
+        <v>6.80677292281767</v>
       </c>
       <c r="E32" t="n">
-        <v>-50.8589370225703</v>
+        <v>-51.0504510896333</v>
       </c>
       <c r="F32" t="n">
-        <v>11.6707444490757</v>
+        <v>11.8622585161386</v>
       </c>
       <c r="G32" t="n">
-        <v>-60.6850298252576</v>
+        <v>-60.9367340276832</v>
       </c>
       <c r="H32" t="n">
-        <v>21.4968372517629</v>
+        <v>21.7485414541885</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -1828,34 +1828,34 @@
         <v>19.5469868566741</v>
       </c>
       <c r="B33" t="n">
-        <v>5.3928024397348</v>
+        <v>5.51843811293778</v>
       </c>
       <c r="C33" t="n">
-        <v>10.6758268433104</v>
+        <v>10.4691561608915</v>
       </c>
       <c r="D33" t="n">
-        <v>28.4181468700379</v>
+        <v>28.6248175524568</v>
       </c>
       <c r="E33" t="n">
-        <v>8.97709407479394</v>
+        <v>8.73084815531609</v>
       </c>
       <c r="F33" t="n">
-        <v>30.1168796385543</v>
+        <v>30.3631255580322</v>
       </c>
       <c r="G33" t="n">
-        <v>5.65512777191731</v>
+        <v>5.33149027774642</v>
       </c>
       <c r="H33" t="n">
-        <v>33.438845941431</v>
+        <v>33.7624834356019</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -1869,34 +1869,34 @@
         <v>22.3759943857316</v>
       </c>
       <c r="B34" t="n">
-        <v>5.05089050750939</v>
+        <v>4.85670884812808</v>
       </c>
       <c r="C34" t="n">
-        <v>14.0672795008787</v>
+        <v>14.3867083305609</v>
       </c>
       <c r="D34" t="n">
-        <v>30.6847092705846</v>
+        <v>30.3652804409023</v>
       </c>
       <c r="E34" t="n">
-        <v>12.4762489910132</v>
+        <v>12.8568450434006</v>
       </c>
       <c r="F34" t="n">
-        <v>32.27573978045</v>
+        <v>31.8951437280627</v>
       </c>
       <c r="G34" t="n">
-        <v>9.36490043838745</v>
+        <v>9.8651123929537</v>
       </c>
       <c r="H34" t="n">
-        <v>35.3870883330758</v>
+        <v>34.8868763785096</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -1910,34 +1910,34 @@
         <v>23.1699285750562</v>
       </c>
       <c r="B35" t="n">
-        <v>5.40607805787437</v>
+        <v>5.59987904091737</v>
       </c>
       <c r="C35" t="n">
-        <v>14.2769301698529</v>
+        <v>13.9581275527471</v>
       </c>
       <c r="D35" t="n">
-        <v>32.0629269802595</v>
+        <v>32.3817295973653</v>
       </c>
       <c r="E35" t="n">
-        <v>12.5740155816225</v>
+        <v>12.1941656548582</v>
       </c>
       <c r="F35" t="n">
-        <v>33.76584156849</v>
+        <v>34.1456914952543</v>
       </c>
       <c r="G35" t="n">
-        <v>9.24387149797184</v>
+        <v>8.74464016565305</v>
       </c>
       <c r="H35" t="n">
-        <v>37.0959856521406</v>
+        <v>37.5952169844594</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -1951,34 +1951,34 @@
         <v>-0.0175488701495728</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00918679860286076</v>
+        <v>0.00867868226644082</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0326611538512788</v>
+        <v>-0.031825302477868</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.00243658644786687</v>
+        <v>-0.00327243782127767</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0355549954111799</v>
+        <v>-0.0345590873917968</v>
       </c>
       <c r="F36" t="n">
-        <v>0.000457255112034267</v>
+        <v>-0.000538652907348811</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0412140633505421</v>
+        <v>-0.0399051556679244</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0061163230513965</v>
+        <v>0.00480741536877874</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -1992,34 +1992,34 @@
         <v>-0.00933389303911543</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00923822148000523</v>
+        <v>0.00955238949317011</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.024530767373724</v>
+        <v>-0.0250475737553802</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00586298129549318</v>
+        <v>0.0063797876771494</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0274408071399257</v>
+        <v>-0.0280565764457288</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00877302106169483</v>
+        <v>0.00938879036749798</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0331315515716089</v>
+        <v>-0.0339408483735216</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0144637654933781</v>
+        <v>0.0152730622952908</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -2033,31 +2033,31 @@
         <v>5.03059222220683</v>
       </c>
       <c r="B38" t="n">
-        <v>2.74094124470542</v>
+        <v>2.83393301250454</v>
       </c>
       <c r="C38" t="n">
-        <v>0.521743874666411</v>
+        <v>0.368772416636856</v>
       </c>
       <c r="D38" t="n">
-        <v>9.53944056974725</v>
+        <v>9.69241202777681</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.341652617415797</v>
+        <v>-0.523916482302076</v>
       </c>
       <c r="F38" t="n">
-        <v>10.4028370618295</v>
+        <v>10.5851009267157</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.03007242415434</v>
+        <v>-2.26961921800488</v>
       </c>
       <c r="H38" t="n">
-        <v>12.091256868568</v>
+        <v>12.3308036624185</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
         <v>43</v>
@@ -2074,31 +2074,31 @@
         <v>8.13046710158778</v>
       </c>
       <c r="B39" t="n">
-        <v>4.11812963356768</v>
+        <v>4.12908608652674</v>
       </c>
       <c r="C39" t="n">
-        <v>1.35614385436895</v>
+        <v>1.3381204892513</v>
       </c>
       <c r="D39" t="n">
-        <v>14.9047903488066</v>
+        <v>14.9228137139243</v>
       </c>
       <c r="E39" t="n">
-        <v>0.058933019795127</v>
+        <v>0.0374583719953776</v>
       </c>
       <c r="F39" t="n">
-        <v>16.2020011833804</v>
+        <v>16.2234758311802</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.47783483448257</v>
+        <v>-2.5060586573051</v>
       </c>
       <c r="H39" t="n">
-        <v>18.7387690376581</v>
+        <v>18.7669928604807</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K39" t="s">
         <v>44</v>
@@ -2115,31 +2115,31 @@
         <v>-29.9701578622211</v>
       </c>
       <c r="B40" t="n">
-        <v>15.6968530918507</v>
+        <v>15.8471408073423</v>
       </c>
       <c r="C40" t="n">
-        <v>-55.7914811983155</v>
+        <v>-56.0387044902992</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.14883452612667</v>
+        <v>-3.90161123414294</v>
       </c>
       <c r="E40" t="n">
-        <v>-60.7359899222484</v>
+        <v>-61.030553844612</v>
       </c>
       <c r="F40" t="n">
-        <v>0.795674197806296</v>
+        <v>1.09023812016989</v>
       </c>
       <c r="G40" t="n">
-        <v>-70.4052514268285</v>
+        <v>-70.7923925819349</v>
       </c>
       <c r="H40" t="n">
-        <v>10.4649357023863</v>
+        <v>10.8520768574928</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K40" t="s">
         <v>45</v>
@@ -2156,31 +2156,31 @@
         <v>-21.8007820108663</v>
       </c>
       <c r="B41" t="n">
-        <v>19.1856100672288</v>
+        <v>19.4541669127263</v>
       </c>
       <c r="C41" t="n">
-        <v>-53.3611105714576</v>
+        <v>-53.8028865823011</v>
       </c>
       <c r="D41" t="n">
-        <v>9.75954654972504</v>
+        <v>10.2013225605685</v>
       </c>
       <c r="E41" t="n">
-        <v>-59.4045777426347</v>
+        <v>-59.9309491598099</v>
       </c>
       <c r="F41" t="n">
-        <v>15.8030137209021</v>
+        <v>16.3293851380773</v>
       </c>
       <c r="G41" t="n">
-        <v>-71.2229135440476</v>
+        <v>-71.9147159780493</v>
       </c>
       <c r="H41" t="n">
-        <v>27.621349522315</v>
+        <v>28.3131519563167</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K41" t="s">
         <v>46</v>
@@ -2197,31 +2197,31 @@
         <v>19.3024695247939</v>
       </c>
       <c r="B42" t="n">
-        <v>7.31609760160799</v>
+        <v>7.65213296350216</v>
       </c>
       <c r="C42" t="n">
-        <v>7.2674889701488</v>
+        <v>6.71471079983288</v>
       </c>
       <c r="D42" t="n">
-        <v>31.3374500794391</v>
+        <v>31.890228249755</v>
       </c>
       <c r="E42" t="n">
-        <v>4.96291822564229</v>
+        <v>4.3042889163297</v>
       </c>
       <c r="F42" t="n">
-        <v>33.6420208239456</v>
+        <v>34.3006501332582</v>
       </c>
       <c r="G42" t="n">
-        <v>0.456202103051766</v>
+        <v>-0.409424989187627</v>
       </c>
       <c r="H42" t="n">
-        <v>38.1487369465361</v>
+        <v>39.0143640387755</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K42" t="s">
         <v>47</v>
@@ -2238,31 +2238,31 @@
         <v>17.7342872049162</v>
       </c>
       <c r="B43" t="n">
-        <v>4.95756995401835</v>
+        <v>4.54837783709042</v>
       </c>
       <c r="C43" t="n">
-        <v>9.57908463055599</v>
+        <v>10.2522056629024</v>
       </c>
       <c r="D43" t="n">
-        <v>25.8894897792764</v>
+        <v>25.2163687469299</v>
       </c>
       <c r="E43" t="n">
-        <v>8.01745009504021</v>
+        <v>8.81946664421895</v>
       </c>
       <c r="F43" t="n">
-        <v>27.4511243147922</v>
+        <v>26.6491077656134</v>
       </c>
       <c r="G43" t="n">
-        <v>4.9635870033649</v>
+        <v>6.01766589657125</v>
       </c>
       <c r="H43" t="n">
-        <v>30.5049874064675</v>
+        <v>29.4509085132611</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K43" t="s">
         <v>48</v>
@@ -2279,31 +2279,31 @@
         <v>14.5720690148713</v>
       </c>
       <c r="B44" t="n">
-        <v>3.74162847291853</v>
+        <v>3.96615428765002</v>
       </c>
       <c r="C44" t="n">
-        <v>8.41709017692036</v>
+        <v>8.04774521168706</v>
       </c>
       <c r="D44" t="n">
-        <v>20.7270478528223</v>
+        <v>21.0963928180556</v>
       </c>
       <c r="E44" t="n">
-        <v>7.23847720795102</v>
+        <v>6.7984066110773</v>
       </c>
       <c r="F44" t="n">
-        <v>21.9056608217917</v>
+        <v>22.3457314186654</v>
       </c>
       <c r="G44" t="n">
-        <v>4.9336340686332</v>
+        <v>4.35525556988489</v>
       </c>
       <c r="H44" t="n">
-        <v>24.2105039611095</v>
+        <v>24.7888824598578</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K44" t="s">
         <v>49</v>
@@ -2320,31 +2320,31 @@
         <v>-46.302576966921</v>
       </c>
       <c r="B45" t="n">
-        <v>13.8980520850275</v>
+        <v>14.3383865347206</v>
       </c>
       <c r="C45" t="n">
-        <v>-69.1648726467913</v>
+        <v>-69.8892228165365</v>
       </c>
       <c r="D45" t="n">
-        <v>-23.4402812870507</v>
+        <v>-22.7159311173055</v>
       </c>
       <c r="E45" t="n">
-        <v>-73.542759053575</v>
+        <v>-74.4058145749735</v>
       </c>
       <c r="F45" t="n">
-        <v>-19.062394880267</v>
+        <v>-18.1993393588685</v>
       </c>
       <c r="G45" t="n">
-        <v>-82.1039591379519</v>
+        <v>-83.2382606803614</v>
       </c>
       <c r="H45" t="n">
-        <v>-10.5011947958901</v>
+        <v>-9.36689325348063</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
         <v>50</v>
@@ -2361,31 +2361,31 @@
         <v>-12.9698321929782</v>
       </c>
       <c r="B46" t="n">
-        <v>17.0936314551797</v>
+        <v>16.321193944626</v>
       </c>
       <c r="C46" t="n">
-        <v>-41.0888559367488</v>
+        <v>-39.8181962318879</v>
       </c>
       <c r="D46" t="n">
-        <v>15.1491915507923</v>
+        <v>13.8785318459315</v>
       </c>
       <c r="E46" t="n">
-        <v>-46.4733498451304</v>
+        <v>-44.9593723244451</v>
       </c>
       <c r="F46" t="n">
-        <v>20.5336854591739</v>
+        <v>19.0197079384887</v>
       </c>
       <c r="G46" t="n">
-        <v>-57.003026821521</v>
+        <v>-55.0132277943347</v>
       </c>
       <c r="H46" t="n">
-        <v>31.0633624355646</v>
+        <v>29.0735634083783</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K46" t="s">
         <v>51</v>
@@ -2402,31 +2402,31 @@
         <v>18.7445305311422</v>
       </c>
       <c r="B47" t="n">
-        <v>6.57300368233587</v>
+        <v>6.59617126651572</v>
       </c>
       <c r="C47" t="n">
-        <v>7.93193947369973</v>
+        <v>7.89382879772387</v>
       </c>
       <c r="D47" t="n">
-        <v>29.5571215885847</v>
+        <v>29.5952322645606</v>
       </c>
       <c r="E47" t="n">
-        <v>5.86144331376393</v>
+        <v>5.81603484877142</v>
       </c>
       <c r="F47" t="n">
-        <v>31.6276177485205</v>
+        <v>31.6730262135131</v>
       </c>
       <c r="G47" t="n">
-        <v>1.81247304544503</v>
+        <v>1.75279334859773</v>
       </c>
       <c r="H47" t="n">
-        <v>35.6765880168394</v>
+        <v>35.7362677136867</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K47" t="s">
         <v>52</v>
@@ -2443,31 +2443,31 @@
         <v>0.000638368597186729</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000496381918031969</v>
+        <v>0.000515358485221237</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.00017817965797586</v>
+        <v>-0.000209396111002207</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00145491685234932</v>
+        <v>0.00148613330537566</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.00033453996215593</v>
+        <v>-0.000371734033846897</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00161127715652939</v>
+        <v>0.00164847122822035</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.000640311223663623</v>
+        <v>-0.000689194860743179</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00191704841803708</v>
+        <v>0.00196593205511664</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K48" t="s">
         <v>53</v>
@@ -2484,31 +2484,31 @@
         <v>0.00661021788226838</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00233947746287496</v>
+        <v>0.00249487285331727</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00276177745583907</v>
+        <v>0.00250615203856147</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0104586583086977</v>
+        <v>0.0107142837259753</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00202484205503346</v>
+        <v>0.00172026708976653</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0111955937095033</v>
+        <v>0.0115001686747702</v>
       </c>
       <c r="G49" t="n">
-        <v>0.000583723937902481</v>
+        <v>0.000183425412123089</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0126367118266343</v>
+        <v>0.0130370103524137</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K49" t="s">
         <v>54</v>
@@ -2525,31 +2525,31 @@
         <v>13185.094164748</v>
       </c>
       <c r="B50" t="n">
-        <v>4885.64660516145</v>
+        <v>5451.91668596154</v>
       </c>
       <c r="C50" t="n">
-        <v>5148.20549925739</v>
+        <v>4216.69121634124</v>
       </c>
       <c r="D50" t="n">
-        <v>21221.9828302386</v>
+        <v>22153.4971131547</v>
       </c>
       <c r="E50" t="n">
-        <v>3609.22681863153</v>
+        <v>2499.33746026335</v>
       </c>
       <c r="F50" t="n">
-        <v>22760.9615108644</v>
+        <v>23870.8508692326</v>
       </c>
       <c r="G50" t="n">
-        <v>599.668509852079</v>
+        <v>-859.043218288956</v>
       </c>
       <c r="H50" t="n">
-        <v>25770.5198196439</v>
+        <v>27229.2315477849</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
         <v>55</v>
